--- a/品質保証/PT問題点一覧.xlsx
+++ b/品質保証/PT問題点一覧.xlsx
@@ -3374,7 +3374,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4161,11 +4161,12 @@
     <row r="45" spans="1:7" ht="13.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.70866141732283472" bottom="0.70866141732283472" header="0.35433070866141736" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L小児薬用量計算ツール（拡張Clark式） PT問題点一覧&amp;R&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;G Copyright © 2019 浦 公統&amp;Rこの文書は CC BY-SA 4.0 国際ライセンスの下に提供されています。</oddFooter>
+    <oddHeader>&amp;L&amp;12小児薬用量計算ツール（拡張Clark式） v1.0
+PT問題点一覧&amp;C&amp;D&amp;R&amp;G</oddHeader>
+    <oddFooter>&amp;L Copyright © 2019 浦 公統&amp;Rこの文書は CC BY-SA 4.0 国際ライセンスの下に提供されています。</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
